--- a/xlsx/大洛杉矶地区_intext.xlsx
+++ b/xlsx/大洛杉矶地区_intext.xlsx
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>爾灣 (加利福尼亞州)</t>
+    <t>尔湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E6%96%AF%E7%BA%B3%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%9D%E7%BA%B3%E8%BF%AA%E8%AF%BA%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>洛杉磯都會區</t>
+    <t>洛杉矶都会区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Los_Angeles_metropolitan_area</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%B8%82%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>洛杉磯市中心</t>
+    <t>洛杉矶市中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E9%9C%B2%E5%A4%A9%E5%8A%87%E5%A0%B4</t>
   </si>
   <si>
-    <t>好萊塢露天劇場</t>
+    <t>好莱坞露天剧场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mid-Wilshire</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93101</t>
   </si>
   <si>
-    <t>美國國道101</t>
+    <t>美国国道101</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B1%B3%E8%B0%B7</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BB%B7%E9%A0%93%E6%AF%94%E5%A5%87</t>
   </si>
   <si>
-    <t>亨廷頓比奇</t>
+    <t>亨廷顿比奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E6%8B%89%E5%88%A9%E5%A1%94</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%99%BB%E6%A0%BC%E7%BE%85%E5%A4%AB_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加登格羅夫 (加利福尼亞州)</t>
+    <t>加登格罗夫 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%BC%80%E6%96%AF%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>棕櫚谷 (加利福尼亞州)</t>
+    <t>棕榈谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%80%AB%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托倫斯 (加利福尼亞州)</t>
+    <t>托伦斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%90%A8%E8%BF%AA%E7%BA%B3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙市 (加利福尼亞州)</t>
+    <t>橙市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%8B%92%E9%A1%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>唐尼 (加利福尼亞州)</t>
+    <t>唐尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%96%AF%E5%A1%94%E6%A2%85%E8%90%A8</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%A1%94%E7%B4%8D_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>方塔納 (加利福尼亞州)</t>
+    <t>方塔纳 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%9B%B7%E8%AF%BA%E8%B0%B7</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%B5%B7%E9%8E%AE</t>
   </si>
   <si>
-    <t>奧海鎮</t>
+    <t>奥海镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E5%B1%B1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -809,73 +809,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>富士汽車</t>
+    <t>富士汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
@@ -1355,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E9%9B%BB%E5%BD%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>環球電影公司</t>
+    <t>环球电影公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hollywood_Center_Studios</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E5%BD%B1%E8%A6%96%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>索尼影視娛樂</t>
+    <t>索尼影视娱乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fox_Television_Center</t>
@@ -1421,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
   </si>
   <si>
-    <t>西好萊塢</t>
+    <t>西好莱坞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Downtown_Long_Beach</t>
@@ -1463,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E7%92%B0%E7%90%83%E5%BD%B1%E5%9F%8E</t>
   </si>
   <si>
-    <t>好萊塢環球影城</t>
+    <t>好莱坞环球影城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Raging_Waters</t>
@@ -1535,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E9%9B%B7%E4%BA%9E%E7%80%9D%E9%9D%92%E5%9D%91</t>
   </si>
   <si>
-    <t>拉布雷亞瀝青坑</t>
+    <t>拉布雷亚沥青坑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Watts_Towers</t>
@@ -1655,19 +1655,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%85%AC%E7%BE%8A</t>
   </si>
   <si>
-    <t>洛杉磯公羊</t>
+    <t>洛杉矶公羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>美式橄欖球</t>
+    <t>美式橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家美式足球聯盟</t>
+    <t>国家美式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A9%84%E6%A6%84%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -1703,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家聯盟</t>
+    <t>国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A5%87%E4%BD%93%E8%82%B2%E5%9C%BA</t>
@@ -1715,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>洛杉磯安那罕天使</t>
+    <t>洛杉矶安那罕天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E7%9B%9F</t>
@@ -1727,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>安那罕天使球場</t>
+    <t>安那罕天使球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E6%B9%96%E4%BA%BA</t>
@@ -1763,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>洛杉磯國王</t>
+    <t>洛杉矶国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%90%83</t>
@@ -1775,13 +1775,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0%E9%B4%A8</t>
   </si>
   <si>
-    <t>安那翰鴨</t>
+    <t>安那翰鸭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E4%B8%AD%E5%BF%83</t>
@@ -1793,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%8A%80%E6%B2%B3</t>
   </si>
   <si>
-    <t>洛杉磯銀河</t>
+    <t>洛杉矶银河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -1823,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%81%AB%E8%8A%B1</t>
   </si>
   <si>
-    <t>洛杉磯火花</t>
+    <t>洛杉矶火花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WNBA</t>
@@ -1847,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -1859,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -1871,19 +1871,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1901,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1919,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1937,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1949,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%BA%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1973,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1985,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2009,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2027,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -2039,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -2057,19 +2057,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -2081,25 +2081,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2117,7 +2117,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2177,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2207,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2225,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2261,19 +2261,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2285,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2303,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -2333,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2345,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -2405,19 +2405,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -2429,13 +2429,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -2447,13 +2447,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
